--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1334.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1334.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.091527531474416</v>
+        <v>1.083099365234375</v>
       </c>
       <c r="B1">
-        <v>2.591177172625072</v>
+        <v>2.319972038269043</v>
       </c>
       <c r="C1">
-        <v>4.687935718048225</v>
+        <v>9.742735862731934</v>
       </c>
       <c r="D1">
-        <v>2.415870828252785</v>
+        <v>2.272362470626831</v>
       </c>
       <c r="E1">
-        <v>1.205832333283787</v>
+        <v>1.302870869636536</v>
       </c>
     </row>
   </sheetData>
